--- a/VersionRecords/Version3.1.3/版本Bug和特性计划及评审表v3.1.3_极光组.xlsx
+++ b/VersionRecords/Version3.1.3/版本Bug和特性计划及评审表v3.1.3_极光组.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\worktools\GitRepository_bak\Mogo_Doc\VersionRecords\Version3.1.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>No</t>
   </si>
@@ -164,6 +164,14 @@
   </si>
   <si>
     <t>房东App</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -840,7 +848,7 @@
   <dimension ref="A1:T213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -962,9 +970,15 @@
       <c r="L2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="14"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="14"/>
+      <c r="M2" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="13">
+        <v>42515</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
       <c r="R2" s="22" t="s">
@@ -1008,9 +1022,15 @@
       <c r="L3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="14"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="14"/>
+      <c r="M3" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="13">
+        <v>42516</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
       <c r="R3" s="22" t="s">
